--- a/mtg_decklist.xlsx
+++ b/mtg_decklist.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\OneDrive\Desktop\decklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D43D8-2833-4420-9B7C-4190F1A3E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437B490-F8A6-4B7A-ADAA-900B3813500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF63D2FD-F15D-4358-A7EC-C8972F42A5B1}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FF63D2FD-F15D-4358-A7EC-C8972F42A5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Decklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Have" sheetId="2" r:id="rId2"/>
+    <sheet name="Sideboard" sheetId="3" r:id="rId2"/>
+    <sheet name="Have" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Arclight Phoenix</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Abrade</t>
+  </si>
+  <si>
+    <t>Brazen Borrower</t>
+  </si>
+  <si>
+    <t>Mystical Dispute</t>
   </si>
 </sst>
 </file>
@@ -482,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828034FA-0509-4EC3-AEBE-5EE043463E62}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,11 +691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D1CD88-8600-4CD2-83DC-943B289D40D6}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E93BB-6AE3-419F-9087-7A82F53846A6}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +710,69 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D1CD88-8600-4CD2-83DC-943B289D40D6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -728,6 +801,14 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
